--- a/Projects/Development_Board/Power_Management_Analysis-X01.xlsx
+++ b/Projects/Development_Board/Power_Management_Analysis-X01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdemolde\Documents\GitHub\GT-BITNG\Projects\Development_Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F66CD6B-0CAB-45EA-8FD0-A66C0F700230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB5BEEB-26E5-4384-A39E-3E1452BBCCFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89F921AD-9C7D-46D5-A051-762CA230053D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
   <si>
     <t>Average Current Consumption</t>
   </si>
@@ -85,6 +85,126 @@
   </si>
   <si>
     <t>Lithium Battery Charger</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>nrf52832</t>
+  </si>
+  <si>
+    <t>Programming Function</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Class File Name (.c)</t>
+  </si>
+  <si>
+    <t>Indicator LED</t>
+  </si>
+  <si>
+    <t>ON/IND LED</t>
+  </si>
+  <si>
+    <t>NRF52_LED_IND_LONG_BLINK</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>Log Init</t>
+  </si>
+  <si>
+    <t>NRF52_LDO_INIT</t>
+  </si>
+  <si>
+    <t>nrf52832, DEBUGGER</t>
+  </si>
+  <si>
+    <t>Debugger Present</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>LDO Init</t>
+  </si>
+  <si>
+    <t>NRF52_LOG_INIT</t>
+  </si>
+  <si>
+    <t>Time Consumed</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENABLE VCC LDO </t>
+  </si>
+  <si>
+    <t>NRF52_VCC_LDO_EN</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>nrf52832, IND LED, DEBUGGER</t>
+  </si>
+  <si>
+    <t>Power Manager Init</t>
+  </si>
+  <si>
+    <t>NRF52_POWER_MANAGER_INIT</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>Enable DC-DC Converter</t>
+  </si>
+  <si>
+    <t>NRF52_POWER_DCDC_CONVERTER_ENABLE</t>
+  </si>
+  <si>
+    <t>standby w/ DC-DC Converter</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TWIM Init</t>
+  </si>
+  <si>
+    <t>NRF52_I2C_TWIM_INIT</t>
+  </si>
+  <si>
+    <t>twim</t>
+  </si>
+  <si>
+    <t>Standby s/ "" &amp; TWIM</t>
+  </si>
+  <si>
+    <t>LED Init</t>
+  </si>
+  <si>
+    <t>NRF52_LED_INIT</t>
+  </si>
+  <si>
+    <t>nrf52 delay</t>
+  </si>
+  <si>
+    <t>NRF52 Delay</t>
   </si>
 </sst>
 </file>
@@ -464,25 +584,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E8633D-EC8A-40C1-938E-4CFE211B2E5A}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="74.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -490,141 +617,558 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1">
         <v>3.532</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="H2" s="1">
         <v>0.52</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
         <v>69.147000000000006</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1">
         <v>3.532</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
+      <c r="H3" s="1">
         <v>340</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="J3" s="1">
         <v>807</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1">
         <v>3.532</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="J4" s="1">
         <v>70</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1">
         <v>3.532</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
-        <v>680</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1">
-        <v>701</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.302</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.4009999999999998</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.5259999999999998</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.302</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7.6159999999999997</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9.093</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1">
+        <v>484.7</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.302</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8.4649999999999999</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1">
+        <v>9.3379999999999992</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1">
+        <v>752.1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.302</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6.9980000000000002</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9.3109999999999999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>202.79</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6.8630000000000004</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9.3889999999999993</v>
+      </c>
+      <c r="L10" s="1">
+        <v>586.9</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.476</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8.3439999999999994</v>
+      </c>
+      <c r="L11" s="1">
+        <v>461.8</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4.2329999999999997</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6.2670000000000003</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9.298</v>
+      </c>
+      <c r="L13" s="1">
+        <v>640.29999999999995</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4.5949999999999998</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6.3150000000000004</v>
+      </c>
+      <c r="J15" s="1">
+        <v>8.3219999999999992</v>
+      </c>
+      <c r="L15" s="1">
+        <v>447.2</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.302</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10.007999999999999</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="1">
+        <v>11.397</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3.0070000000000001</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="1">
+        <v>7.3879999999999999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>7.5289999999999999</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
